--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB917C-11CB-41C4-92C6-C6E33238AA58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8B79BA-0C83-4753-897A-50B8F5C34FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="289">
   <si>
     <t>setting_name</t>
   </si>
@@ -895,6 +895,9 @@
   </si>
   <si>
     <t>Registro da 4ª criança</t>
+  </si>
+  <si>
+    <t>ASSISTENTE</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
@@ -3863,11 +3866,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4317,6 +4320,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
     <sortCondition ref="A2"/>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8B79BA-0C83-4753-897A-50B8F5C34FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776C1CD7-E4AA-43D3-BE61-03D7D167F513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="299">
   <si>
     <t>setting_name</t>
   </si>
@@ -327,9 +327,6 @@
     <t>MAEBRAC</t>
   </si>
   <si>
-    <t>Perimento do braco esquardo</t>
-  </si>
-  <si>
     <t>Maternal MUAC</t>
   </si>
   <si>
@@ -723,18 +720,12 @@
     <t>Elsewhere</t>
   </si>
   <si>
-    <t>Outro</t>
-  </si>
-  <si>
     <t>DR</t>
   </si>
   <si>
     <t>Doctor</t>
   </si>
   <si>
-    <t>Medico</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
@@ -898,6 +889,45 @@
   </si>
   <si>
     <t>ASSISTENTE</t>
+  </si>
+  <si>
+    <t>Perimetro do braço esquerdo</t>
+  </si>
+  <si>
+    <t>Mesma gravidez desde a última visita</t>
+  </si>
+  <si>
+    <t>Estado final da gravidez</t>
+  </si>
+  <si>
+    <t>Data do fim da gravidez</t>
+  </si>
+  <si>
+    <t>Duração da gravidez antes do aborto espontâneo</t>
+  </si>
+  <si>
+    <t>Número do nascimento da criança</t>
+  </si>
+  <si>
+    <t>A mulher procurou consultas durante a gravidez?</t>
+  </si>
+  <si>
+    <t>A mulher deu à luz na aldeia?</t>
+  </si>
+  <si>
+    <t>Onde é que a mulher deu à luz?</t>
+  </si>
+  <si>
+    <t>Quem ajudou o parto?</t>
+  </si>
+  <si>
+    <t>Outro lugar</t>
+  </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
+    <t>Mais do que 342 cm</t>
   </si>
 </sst>
 </file>
@@ -954,7 +984,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,6 +1006,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,10 +1040,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1028,6 +1063,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1328,23 +1368,23 @@
     <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1353,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,10 +1417,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
         <v>124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,7 +1436,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1406,18 +1446,18 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1431,9 +1471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,32 +1489,32 @@
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1483,31 +1523,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="D3" s="13" t="s">
+    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
         <v>133</v>
       </c>
-      <c r="F3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="G3" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1516,11 +1557,13 @@
       <c r="C5" t="s">
         <v>95</v>
       </c>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -1530,38 +1573,41 @@
         <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" t="s">
         <v>98</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F8" t="s">
-        <v>279</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s">
         <v>97</v>
       </c>
+      <c r="H10" s="16"/>
       <c r="I10">
         <v>555</v>
       </c>
@@ -1570,106 +1616,121 @@
       <c r="B11" t="s">
         <v>96</v>
       </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="14" t="s">
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="14" t="s">
+      <c r="C15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="D17" s="14" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>12</v>
       </c>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>262</v>
+      <c r="G21" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>263</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>13</v>
       </c>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>96</v>
       </c>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>12</v>
       </c>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
@@ -1681,8 +1742,8 @@
       <c r="F26" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1690,11 +1751,13 @@
       <c r="B27" t="s">
         <v>13</v>
       </c>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>12</v>
       </c>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
@@ -1703,8 +1766,8 @@
       <c r="F29" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1712,32 +1775,34 @@
       <c r="B30" t="s">
         <v>13</v>
       </c>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>12</v>
       </c>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6" t="s">
+      <c r="G32" s="5"/>
+      <c r="H32" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1746,20 +1811,21 @@
         <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F35" t="s">
         <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1767,25 +1833,28 @@
       <c r="B36" t="s">
         <v>96</v>
       </c>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>13</v>
       </c>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>12</v>
       </c>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>103</v>
-      </c>
-      <c r="H39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1797,9 +1866,9 @@
         <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1808,8 +1877,9 @@
         <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
@@ -1819,9 +1889,9 @@
         <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1829,25 +1899,28 @@
       <c r="B43" t="s">
         <v>96</v>
       </c>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>13</v>
       </c>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>12</v>
       </c>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
-      </c>
-      <c r="H46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1859,9 +1932,9 @@
         <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1870,8 +1943,9 @@
         <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
@@ -1881,9 +1955,9 @@
         <v>61</v>
       </c>
       <c r="G49" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1891,23 +1965,26 @@
       <c r="B50" t="s">
         <v>96</v>
       </c>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>13</v>
       </c>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>12</v>
       </c>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
+      <c r="G53" s="5"/>
+      <c r="H53" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1919,9 +1996,9 @@
         <v>58</v>
       </c>
       <c r="G54" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1930,8 +2007,9 @@
         <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
@@ -1941,9 +2019,9 @@
         <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>100</v>
-      </c>
-      <c r="H56" t="s">
+        <v>99</v>
+      </c>
+      <c r="H56" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1951,34 +2029,38 @@
       <c r="B57" t="s">
         <v>96</v>
       </c>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>13</v>
       </c>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>12</v>
       </c>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F61" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6" t="s">
+      <c r="G61" s="5"/>
+      <c r="H61" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1986,324 +2068,352 @@
       <c r="B62" t="s">
         <v>13</v>
       </c>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>96</v>
       </c>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="6"/>
       <c r="B64" t="s">
         <v>96</v>
       </c>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
+      <c r="A65" s="15"/>
       <c r="B65" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>141</v>
-      </c>
+      <c r="C65" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
       <c r="D67" t="s">
         <v>25</v>
       </c>
       <c r="E67" t="s">
+        <v>141</v>
+      </c>
+      <c r="F67" t="s">
         <v>142</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="H67" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>144</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11" t="s">
+      <c r="G70" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11" t="s">
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="D70" t="s">
-        <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>145</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
       <c r="D74" t="s">
         <v>30</v>
       </c>
       <c r="F74" t="s">
+        <v>147</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="H74" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" t="s">
         <v>149</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" t="s">
-        <v>150</v>
-      </c>
+      <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11" t="s">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
       <c r="D79" t="s">
         <v>30</v>
       </c>
       <c r="F79" t="s">
+        <v>150</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>152</v>
+      <c r="H79" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11" t="s">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="H80" s="16"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11" t="s">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11" t="s">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
       <c r="D83" t="s">
         <v>25</v>
       </c>
       <c r="E83" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" t="s">
+        <v>152</v>
+      </c>
+      <c r="G83" t="s">
         <v>153</v>
       </c>
-      <c r="F83" t="s">
-        <v>153</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H83" t="s">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" t="s">
-        <v>156</v>
-      </c>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
       <c r="D85" t="s">
         <v>25</v>
       </c>
       <c r="E85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
+        <v>156</v>
+      </c>
+      <c r="G85" t="s">
         <v>157</v>
       </c>
-      <c r="F85" t="s">
-        <v>157</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="H85" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="H85" t="s">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11" t="s">
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>155</v>
+      </c>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="D88" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
         <v>161</v>
       </c>
-      <c r="F88" t="s">
+      <c r="H88" s="16"/>
+      <c r="I88" t="s">
         <v>162</v>
       </c>
-      <c r="I88" t="s">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11" t="s">
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="D90" t="s">
+        <v>160</v>
+      </c>
+      <c r="F90" t="s">
+        <v>161</v>
+      </c>
+      <c r="H90" s="16"/>
+      <c r="I90" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="D90" t="s">
-        <v>161</v>
-      </c>
-      <c r="F90" t="s">
-        <v>162</v>
-      </c>
-      <c r="I90" t="s">
-        <v>165</v>
-      </c>
-    </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11" t="s">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="H91" s="16"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11" t="s">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11" t="s">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
       <c r="D94" t="s">
         <v>25</v>
       </c>
       <c r="E94" t="s">
+        <v>165</v>
+      </c>
+      <c r="F94" t="s">
         <v>166</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G94" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>168</v>
+      <c r="H94" s="22" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11" t="s">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="H95" s="16"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11" t="s">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H96" s="16"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
       <c r="D97" t="s">
         <v>25</v>
       </c>
@@ -2311,624 +2421,645 @@
         <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>169</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>100</v>
+        <v>168</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11" t="s">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="16"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11" t="s">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="16"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
       <c r="D100" t="s">
         <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F100" t="s">
+        <v>169</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6" t="s">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" t="s">
-        <v>172</v>
-      </c>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
       <c r="D102" t="s">
         <v>30</v>
       </c>
       <c r="F102" t="s">
+        <v>172</v>
+      </c>
+      <c r="G102" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G102" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>174</v>
+      <c r="H102" s="16" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11" t="s">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="H103" s="16"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11" t="s">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11" t="s">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H105" s="16"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
       <c r="D106" t="s">
         <v>28</v>
       </c>
       <c r="G106" t="s">
-        <v>103</v>
-      </c>
-      <c r="H106" t="s">
+        <v>102</v>
+      </c>
+      <c r="H106" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
       <c r="D107" t="s">
         <v>30</v>
       </c>
       <c r="F107" t="s">
+        <v>174</v>
+      </c>
+      <c r="G107" t="s">
+        <v>100</v>
+      </c>
+      <c r="H107" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" t="s">
         <v>175</v>
       </c>
-      <c r="G107" t="s">
-        <v>101</v>
-      </c>
-      <c r="H107" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C108" t="s">
-        <v>176</v>
-      </c>
+      <c r="H108" s="16"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
       <c r="D109" t="s">
         <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G109" t="s">
-        <v>100</v>
-      </c>
-      <c r="H109" t="s">
+        <v>99</v>
+      </c>
+      <c r="H109" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11" t="s">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11" t="s">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11" t="s">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H112" s="16"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
       <c r="D113" t="s">
         <v>28</v>
       </c>
       <c r="G113" t="s">
-        <v>104</v>
-      </c>
-      <c r="H113" t="s">
+        <v>103</v>
+      </c>
+      <c r="H113" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
       <c r="D114" t="s">
         <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G114" t="s">
-        <v>101</v>
-      </c>
-      <c r="H114" t="s">
+        <v>100</v>
+      </c>
+      <c r="H114" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11" t="s">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C115" t="s">
-        <v>176</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="H115" s="16"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
       <c r="D116" t="s">
         <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G116" t="s">
-        <v>100</v>
-      </c>
-      <c r="H116" t="s">
+        <v>99</v>
+      </c>
+      <c r="H116" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11" t="s">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="H117" s="16"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11" t="s">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="H118" s="16"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11" t="s">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H119" s="16"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
       <c r="D120" t="s">
         <v>28</v>
       </c>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6" t="s">
+      <c r="G120" s="5"/>
+      <c r="H120" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
       <c r="D121" t="s">
         <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G121" t="s">
-        <v>101</v>
-      </c>
-      <c r="H121" t="s">
+        <v>100</v>
+      </c>
+      <c r="H121" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11" t="s">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C122" t="s">
-        <v>176</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="H122" s="16"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
       <c r="D123" t="s">
         <v>30</v>
       </c>
       <c r="F123" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G123" t="s">
-        <v>100</v>
-      </c>
-      <c r="H123" t="s">
+        <v>99</v>
+      </c>
+      <c r="H123" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11" t="s">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="H124" s="16"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11" t="s">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11" t="s">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H126" s="16"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
       <c r="D127" t="s">
         <v>25</v>
       </c>
       <c r="E127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F127" t="s">
+        <v>181</v>
+      </c>
+      <c r="G127" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G127" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>183</v>
+      <c r="H127" s="16" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11" t="s">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="H128" s="16"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11" t="s">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H129" s="16"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
       <c r="D130" t="s">
         <v>25</v>
       </c>
       <c r="E130" t="s">
+        <v>183</v>
+      </c>
+      <c r="F130" t="s">
         <v>184</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G130" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>186</v>
+      <c r="H130" s="16" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11" t="s">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="H131" s="16"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11" t="s">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H132" s="16"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
       <c r="D133" t="s">
         <v>25</v>
       </c>
       <c r="E133" t="s">
+        <v>186</v>
+      </c>
+      <c r="F133" t="s">
         <v>187</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G133" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>189</v>
+      <c r="H133" s="16" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11" t="s">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="16"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11" t="s">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C135" t="s">
-        <v>266</v>
-      </c>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
+        <v>263</v>
+      </c>
+      <c r="G135" s="10"/>
+      <c r="H135" s="16"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11" t="s">
+      <c r="A136" s="10"/>
+      <c r="B136" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="16"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
       <c r="D137" t="s">
         <v>28</v>
       </c>
-      <c r="G137" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>274</v>
+      <c r="G137" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H137" s="16" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
       <c r="D138" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
-      </c>
-      <c r="G138" s="11"/>
+        <v>264</v>
+      </c>
+      <c r="G138" s="10"/>
+      <c r="H138" s="16"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11" t="s">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="16"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11" t="s">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C140" t="s">
-        <v>268</v>
-      </c>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
+        <v>265</v>
+      </c>
+      <c r="G140" s="10"/>
+      <c r="H140" s="16"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11" t="s">
+      <c r="A141" s="10"/>
+      <c r="B141" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="16"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
       <c r="D142" t="s">
         <v>28</v>
       </c>
-      <c r="G142" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>275</v>
+      <c r="G142" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H142" s="16" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
       <c r="D143" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
-      </c>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
+        <v>264</v>
+      </c>
+      <c r="G143" s="10"/>
+      <c r="H143" s="16"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11" t="s">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="16"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11" t="s">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C145" t="s">
-        <v>282</v>
-      </c>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
+        <v>279</v>
+      </c>
+      <c r="G145" s="10"/>
+      <c r="H145" s="16"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11" t="s">
+      <c r="A146" s="10"/>
+      <c r="B146" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="16"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
       <c r="D147" t="s">
         <v>28</v>
       </c>
-      <c r="G147" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>284</v>
+      <c r="G147" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H147" s="16" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
       <c r="D148" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
+        <v>264</v>
+      </c>
+      <c r="G148" s="10"/>
+      <c r="H148" s="16"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11" t="s">
+      <c r="A149" s="10"/>
+      <c r="B149" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="16"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11" t="s">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C150" t="s">
-        <v>283</v>
-      </c>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
+        <v>280</v>
+      </c>
+      <c r="G150" s="10"/>
+      <c r="H150" s="16"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11" t="s">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="16"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
       <c r="D152" t="s">
         <v>28</v>
       </c>
-      <c r="G152" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>287</v>
+      <c r="G152" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H152" s="16" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
       <c r="D153" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E153" t="s">
-        <v>267</v>
-      </c>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
+        <v>264</v>
+      </c>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11" t="s">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11" t="s">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
+      <c r="A156" s="10"/>
       <c r="B156" t="s">
         <v>96</v>
       </c>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11" t="s">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
@@ -2936,7 +3067,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="16"/>
+      <c r="A159" s="15"/>
       <c r="B159" t="s">
         <v>96</v>
       </c>
@@ -2970,114 +3101,114 @@
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
         <v>120</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" t="s">
         <v>267</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3103,16 +3234,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3131,16 +3262,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -3149,7 +3280,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3163,699 +3294,700 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="str">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="16" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" t="str">
+      <c r="C2" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" t="str">
+      <c r="C3" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="16" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="16" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="16" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="16" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="16" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" t="str">
+      <c r="A17" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="16" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D17" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" t="str">
+      <c r="A18" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D18" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" t="str">
+      <c r="A19" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="16" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" t="s">
-        <v>195</v>
+      <c r="C19" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" t="str">
+      <c r="A20" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="16" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" t="str">
+      <c r="A21" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="16" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D21" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" t="str">
+      <c r="A22" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D22" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" t="str">
+      <c r="A23" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="16" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="16" t="s">
         <v>193</v>
       </c>
+      <c r="D23" s="16" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" t="str">
+      <c r="A24" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="16" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D24" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" t="str">
+      <c r="A25" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D25" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" t="str">
+      <c r="A26" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="16" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D26" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" t="str">
+      <c r="A27" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D27" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" t="str">
+      <c r="A28" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="16" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="D28" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" t="str">
+      <c r="A29" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="16" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D29" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" t="str">
+      <c r="A30" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="16" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D30" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" t="str">
+      <c r="A31" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="16" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="D31" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" t="str">
+      <c r="A32" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="16" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="D32" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" t="str">
+      <c r="A33" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="16" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C37" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C39" s="16" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>187</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D39" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" s="16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>187</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" s="16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" s="16" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>187</v>
-      </c>
-      <c r="B46" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" t="s">
-        <v>254</v>
-      </c>
-    </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>278</v>
-      </c>
-      <c r="B47" t="str">
+      <c r="A47" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" s="16" t="str">
         <f>"555"</f>
         <v>555</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>280</v>
+      <c r="C47" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +4000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
@@ -3880,20 +4012,20 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -3904,7 +4036,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -3915,7 +4047,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -3937,7 +4069,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -3948,7 +4080,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -3962,7 +4094,7 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3992,7 +4124,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -4003,7 +4135,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -4047,9 +4179,9 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B16" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="b">
@@ -4058,7 +4190,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -4069,10 +4201,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -4080,7 +4212,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -4091,7 +4223,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -4102,7 +4234,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -4113,7 +4245,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -4127,7 +4259,7 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -4138,7 +4270,7 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -4146,7 +4278,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -4168,10 +4300,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -4190,10 +4322,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -4201,7 +4333,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -4234,7 +4366,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -4245,7 +4377,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -4256,7 +4388,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -4267,7 +4399,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -4278,9 +4410,9 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C38" t="b">
@@ -4289,10 +4421,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -4300,10 +4432,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
         <v>129</v>
-      </c>
-      <c r="B41" t="s">
-        <v>130</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -4311,10 +4443,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -4322,10 +4454,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776C1CD7-E4AA-43D3-BE61-03D7D167F513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED14DDF5-2D9A-4353-B3C4-052341466676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="317">
   <si>
     <t>setting_name</t>
   </si>
@@ -928,6 +928,60 @@
   </si>
   <si>
     <t>Mais do que 342 cm</t>
+  </si>
+  <si>
+    <t>Gestation month</t>
+  </si>
+  <si>
+    <t>dontknow</t>
+  </si>
+  <si>
+    <t>gestns</t>
+  </si>
+  <si>
+    <t>data('gestns') != null</t>
+  </si>
+  <si>
+    <t>qc_mns</t>
+  </si>
+  <si>
+    <t>data('qc_mns') != null</t>
+  </si>
+  <si>
+    <t>fer_mns</t>
+  </si>
+  <si>
+    <t>data('fer_mns') != null</t>
+  </si>
+  <si>
+    <t>fansi_mns</t>
+  </si>
+  <si>
+    <t>data('fansi_mns') != null</t>
+  </si>
+  <si>
+    <t>abmesns</t>
+  </si>
+  <si>
+    <t>data('abmesns') != null</t>
+  </si>
+  <si>
+    <t>cdg_mns</t>
+  </si>
+  <si>
+    <t>data('cdg_mns') != null</t>
+  </si>
+  <si>
+    <t>fedep_mns</t>
+  </si>
+  <si>
+    <t>data('fedep_mns') != null</t>
+  </si>
+  <si>
+    <t>qvfansi_mns</t>
+  </si>
+  <si>
+    <t>data('qvfansi_mns') != null</t>
   </si>
 </sst>
 </file>
@@ -1469,11 +1523,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,487 +1820,488 @@
       <c r="F29" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="H29" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="16"/>
+      <c r="D30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="16"/>
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="I32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="16" t="s">
+      <c r="G36" s="5"/>
+      <c r="H36" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>130</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F37" t="s">
         <v>55</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G37" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H37" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>94</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>130</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F39" t="s">
         <v>54</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G39" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H39" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>96</v>
       </c>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>28</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G43" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H43" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>30</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F44" t="s">
         <v>57</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G44" t="s">
         <v>100</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H44" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>274</v>
+      </c>
+      <c r="E45" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>94</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C46" t="s">
+        <v>304</v>
+      </c>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="I47">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
         <v>101</v>
       </c>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>30</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F50" t="s">
         <v>56</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G50" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H50" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
         <v>28</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G54" t="s">
         <v>103</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H54" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
         <v>30</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F55" t="s">
         <v>62</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G55" t="s">
         <v>100</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H55" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" t="s">
+        <v>300</v>
+      </c>
+      <c r="F56" t="s">
+        <v>305</v>
+      </c>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>94</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C57" t="s">
+        <v>306</v>
+      </c>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="I58">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
         <v>30</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F61" t="s">
         <v>61</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G61" t="s">
         <v>99</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H61" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>96</v>
       </c>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="16" t="s">
+      <c r="G65" s="5"/>
+      <c r="H65" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>30</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F66" t="s">
         <v>58</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G66" t="s">
         <v>100</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H66" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>274</v>
+      </c>
+      <c r="E67" t="s">
+        <v>300</v>
+      </c>
+      <c r="F67" t="s">
+        <v>307</v>
+      </c>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>94</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="I69">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
         <v>101</v>
       </c>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>30</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F72" t="s">
         <v>60</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G72" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H72" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>96</v>
       </c>
-      <c r="H57" s="16"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>94</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C75" t="s">
         <v>101</v>
       </c>
-      <c r="H59" s="16"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="16"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
         <v>130</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F77" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="16" t="s">
+      <c r="G77" s="5"/>
+      <c r="H77" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="16"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>96</v>
       </c>
-      <c r="H63" s="16"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" t="s">
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" t="s">
         <v>96</v>
       </c>
-      <c r="H64" s="16"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" t="s">
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="H65" s="16"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="16"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="D67" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" t="s">
-        <v>141</v>
-      </c>
-      <c r="F67" t="s">
-        <v>142</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="16"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="16"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="D70" t="s">
-        <v>130</v>
-      </c>
-      <c r="F70" t="s">
-        <v>144</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="16"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" t="s">
-        <v>146</v>
-      </c>
-      <c r="H72" s="16"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="16"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="D74" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" t="s">
-        <v>147</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="16"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H76" s="16"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" t="s">
-        <v>149</v>
-      </c>
-      <c r="H77" s="16"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="16"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="D79" t="s">
-        <v>30</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H79" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="16"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="H81" s="16"/>
     </row>
@@ -2264,82 +2319,69 @@
         <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
-      </c>
-      <c r="G83" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>154</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="D85" t="s">
-        <v>25</v>
-      </c>
-      <c r="E85" t="s">
-        <v>156</v>
-      </c>
-      <c r="F85" t="s">
-        <v>156</v>
-      </c>
-      <c r="G85" t="s">
-        <v>157</v>
-      </c>
-      <c r="H85" s="16" t="s">
-        <v>158</v>
-      </c>
+      <c r="B85" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
-      <c r="B86" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H86" s="16"/>
+      <c r="B86" s="10"/>
+      <c r="D86" t="s">
+        <v>130</v>
+      </c>
+      <c r="F86" t="s">
+        <v>144</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="H87" s="16"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="D88" t="s">
-        <v>160</v>
-      </c>
-      <c r="F88" t="s">
-        <v>161</v>
+      <c r="B88" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>146</v>
       </c>
       <c r="H88" s="16"/>
-      <c r="I88" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="H89" s="16"/>
     </row>
@@ -2347,55 +2389,56 @@
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="D90" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" t="s">
+        <v>147</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" t="s">
+        <v>300</v>
+      </c>
+      <c r="F91" t="s">
+        <v>309</v>
+      </c>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>310</v>
+      </c>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
         <v>160</v>
       </c>
-      <c r="F90" t="s">
-        <v>161</v>
-      </c>
-      <c r="H90" s="16"/>
-      <c r="I90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10" t="s">
+      <c r="F93" t="s">
+        <v>147</v>
+      </c>
+      <c r="G93" s="16"/>
+      <c r="I93">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>96</v>
       </c>
-      <c r="H91" s="16"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="16"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="16"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="D94" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" t="s">
-        <v>165</v>
-      </c>
-      <c r="F94" t="s">
-        <v>166</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H94" s="22" t="s">
-        <v>292</v>
-      </c>
+      <c r="G94" s="16"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
@@ -2407,252 +2450,243 @@
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="H96" s="16"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="D97" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" t="s">
-        <v>50</v>
-      </c>
-      <c r="F97" t="s">
-        <v>168</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H97" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>149</v>
+      </c>
+      <c r="H97" s="16"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="D99" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G98" s="10"/>
-      <c r="H98" s="16"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="10"/>
-      <c r="H99" s="16"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="D100" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" t="s">
-        <v>165</v>
-      </c>
-      <c r="F100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="16"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="H101" s="16"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="D102" t="s">
-        <v>30</v>
-      </c>
-      <c r="F102" t="s">
-        <v>172</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H102" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="16"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
-      <c r="B103" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H103" s="16"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="10"/>
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="s">
+        <v>152</v>
+      </c>
+      <c r="F103" t="s">
+        <v>152</v>
+      </c>
+      <c r="G103" t="s">
+        <v>153</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="C104" t="s">
+        <v>155</v>
       </c>
       <c r="H104" s="16"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
-      <c r="B105" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="16"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="10"/>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" t="s">
+        <v>156</v>
+      </c>
+      <c r="G105" t="s">
+        <v>157</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="D106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" t="s">
-        <v>102</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="D107" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107" t="s">
-        <v>174</v>
-      </c>
-      <c r="G107" t="s">
-        <v>100</v>
-      </c>
-      <c r="H107" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" t="s">
+        <v>155</v>
+      </c>
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
-      <c r="B108" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C108" t="s">
-        <v>175</v>
+      <c r="B108" s="10"/>
+      <c r="D108" t="s">
+        <v>160</v>
+      </c>
+      <c r="F108" t="s">
+        <v>161</v>
       </c>
       <c r="H108" s="16"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="D109" t="s">
-        <v>30</v>
-      </c>
-      <c r="F109" t="s">
-        <v>176</v>
-      </c>
-      <c r="G109" t="s">
-        <v>99</v>
-      </c>
-      <c r="H109" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
-      <c r="B110" s="10" t="s">
-        <v>96</v>
+      <c r="B110" s="10"/>
+      <c r="D110" t="s">
+        <v>160</v>
+      </c>
+      <c r="F110" t="s">
+        <v>161</v>
       </c>
       <c r="H110" s="16"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="H111" s="16"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H112" s="16"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="D113" t="s">
-        <v>28</v>
-      </c>
-      <c r="G113" t="s">
-        <v>103</v>
-      </c>
-      <c r="H113" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="B113" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="16"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="D114" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E114" t="s">
+        <v>165</v>
       </c>
       <c r="F114" t="s">
-        <v>177</v>
-      </c>
-      <c r="G114" t="s">
-        <v>100</v>
-      </c>
-      <c r="H114" s="16" t="s">
-        <v>44</v>
+        <v>166</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H114" s="22" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C115" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="H115" s="16"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="D116" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" t="s">
-        <v>178</v>
-      </c>
-      <c r="G116" t="s">
-        <v>99</v>
-      </c>
-      <c r="H116" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="B116" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="16"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
-      <c r="B117" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H117" s="16"/>
+      <c r="B117" s="10"/>
+      <c r="D117" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" t="s">
+        <v>50</v>
+      </c>
+      <c r="F117" t="s">
+        <v>168</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H117" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G118" s="10"/>
       <c r="H118" s="16"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -2660,415 +2694,749 @@
       <c r="B119" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="G119" s="10"/>
       <c r="H119" s="16"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="E120" t="s">
+        <v>165</v>
+      </c>
+      <c r="F120" t="s">
+        <v>169</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="16" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="D121" t="s">
-        <v>30</v>
-      </c>
-      <c r="F121" t="s">
-        <v>179</v>
-      </c>
-      <c r="G121" t="s">
-        <v>100</v>
-      </c>
-      <c r="H121" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B121" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121" t="s">
+        <v>171</v>
+      </c>
+      <c r="H121" s="16"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
-      <c r="B122" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C122" t="s">
-        <v>175</v>
-      </c>
-      <c r="H122" s="16"/>
+      <c r="B122" s="10"/>
+      <c r="D122" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" t="s">
+        <v>172</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H122" s="16" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="D123" t="s">
-        <v>30</v>
-      </c>
-      <c r="F123" t="s">
-        <v>180</v>
-      </c>
-      <c r="G123" t="s">
-        <v>99</v>
-      </c>
-      <c r="H123" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="B123" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H123" s="16"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="H124" s="16"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
-      <c r="B126" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" s="16"/>
+      <c r="B126" s="10"/>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s">
+        <v>102</v>
+      </c>
+      <c r="H126" s="16" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="D127" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
-        <v>181</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="G127" t="s">
+        <v>100</v>
       </c>
       <c r="H127" s="16" t="s">
-        <v>293</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="16"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="16"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
+      <c r="D128" t="s">
+        <v>274</v>
+      </c>
+      <c r="E128" t="s">
+        <v>300</v>
+      </c>
+      <c r="F128" t="s">
+        <v>311</v>
+      </c>
+      <c r="G128" s="16"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129" t="s">
+        <v>312</v>
+      </c>
+      <c r="G129" s="16"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="F130" t="s">
-        <v>184</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H130" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" s="16"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="G130" s="16"/>
+      <c r="I130">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>96</v>
+      </c>
+      <c r="G131" s="16"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="C132" t="s">
+        <v>175</v>
       </c>
       <c r="H132" s="16"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="D133" t="s">
-        <v>25</v>
-      </c>
-      <c r="E133" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>187</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
+      </c>
+      <c r="G133" t="s">
+        <v>99</v>
       </c>
       <c r="H133" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" s="10"/>
+        <v>96</v>
+      </c>
       <c r="H134" s="16"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C135" t="s">
-        <v>263</v>
-      </c>
-      <c r="G135" s="10"/>
+        <v>13</v>
+      </c>
       <c r="H135" s="16"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G136" s="10"/>
       <c r="H136" s="16"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="D137" t="s">
         <v>28</v>
       </c>
-      <c r="G137" s="5" t="s">
-        <v>269</v>
+      <c r="G137" t="s">
+        <v>103</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="D138" t="s">
-        <v>118</v>
-      </c>
-      <c r="E138" t="s">
-        <v>264</v>
-      </c>
-      <c r="G138" s="10"/>
-      <c r="H138" s="16"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" s="10"/>
-      <c r="H139" s="16"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" t="s">
+        <v>177</v>
+      </c>
+      <c r="G138" t="s">
+        <v>100</v>
+      </c>
+      <c r="H138" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>274</v>
+      </c>
+      <c r="E139" t="s">
+        <v>300</v>
+      </c>
+      <c r="F139" t="s">
+        <v>313</v>
+      </c>
+      <c r="G139" s="16"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>94</v>
       </c>
       <c r="C140" t="s">
-        <v>265</v>
-      </c>
-      <c r="G140" s="10"/>
-      <c r="H140" s="16"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="10"/>
-      <c r="H141" s="16"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="D142" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="H142" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="G140" s="16"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>160</v>
+      </c>
+      <c r="F141" t="s">
+        <v>177</v>
+      </c>
+      <c r="G141" s="16"/>
+      <c r="I141">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>96</v>
+      </c>
+      <c r="G142" s="16"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="D143" t="s">
-        <v>118</v>
-      </c>
-      <c r="E143" t="s">
-        <v>264</v>
-      </c>
-      <c r="G143" s="10"/>
+      <c r="B143" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C143" t="s">
+        <v>175</v>
+      </c>
       <c r="H143" s="16"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
-      <c r="B144" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" s="10"/>
-      <c r="H144" s="16"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="10"/>
+      <c r="D144" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" t="s">
+        <v>178</v>
+      </c>
+      <c r="G144" t="s">
+        <v>99</v>
+      </c>
+      <c r="H144" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" t="s">
-        <v>279</v>
-      </c>
-      <c r="G145" s="10"/>
+        <v>96</v>
+      </c>
       <c r="H145" s="16"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" s="16"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="10"/>
+      <c r="B147" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G146" s="10"/>
-      <c r="H146" s="16"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="D147" t="s">
-        <v>28</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H147" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H147" s="16"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="D148" t="s">
-        <v>118</v>
-      </c>
-      <c r="E148" t="s">
-        <v>264</v>
-      </c>
-      <c r="G148" s="10"/>
-      <c r="H148" s="16"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G148" s="5"/>
+      <c r="H148" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
-      <c r="B149" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="10"/>
-      <c r="H149" s="16"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10" t="s">
+      <c r="B149" s="10"/>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149" t="s">
+        <v>179</v>
+      </c>
+      <c r="G149" t="s">
+        <v>100</v>
+      </c>
+      <c r="H149" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>274</v>
+      </c>
+      <c r="E150" t="s">
+        <v>300</v>
+      </c>
+      <c r="F150" t="s">
+        <v>315</v>
+      </c>
+      <c r="G150" s="16"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>94</v>
       </c>
-      <c r="C150" t="s">
-        <v>280</v>
-      </c>
-      <c r="G150" s="10"/>
-      <c r="H150" s="16"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" s="10"/>
-      <c r="H151" s="16"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
+      <c r="C151" t="s">
+        <v>316</v>
+      </c>
+      <c r="G151" s="16"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>28</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="H152" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="D153" t="s">
-        <v>118</v>
-      </c>
-      <c r="E153" t="s">
-        <v>264</v>
-      </c>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="F152" t="s">
+        <v>179</v>
+      </c>
+      <c r="G152" s="16"/>
+      <c r="I152">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>96</v>
+      </c>
+      <c r="G153" s="16"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="C154" t="s">
+        <v>175</v>
+      </c>
+      <c r="H154" s="16"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="10"/>
+      <c r="D155" t="s">
+        <v>30</v>
+      </c>
+      <c r="F155" t="s">
+        <v>180</v>
+      </c>
+      <c r="G155" t="s">
+        <v>99</v>
+      </c>
+      <c r="H155" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" t="s">
-        <v>96</v>
-      </c>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H156" s="16"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" s="16"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" s="16"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="D159" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" t="s">
+        <v>165</v>
+      </c>
+      <c r="F159" t="s">
+        <v>181</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H159" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="16"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" s="16"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="D162" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" t="s">
+        <v>183</v>
+      </c>
+      <c r="F162" t="s">
+        <v>184</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H162" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="10"/>
+      <c r="B163" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="16"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" s="16"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="D165" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" t="s">
+        <v>186</v>
+      </c>
+      <c r="F165" t="s">
+        <v>187</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H165" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" s="10"/>
+      <c r="H166" s="16"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
+      <c r="B167" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C167" t="s">
+        <v>263</v>
+      </c>
+      <c r="G167" s="10"/>
+      <c r="H167" s="16"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="10"/>
+      <c r="H168" s="16"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H169" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="D170" t="s">
+        <v>118</v>
+      </c>
+      <c r="E170" t="s">
+        <v>264</v>
+      </c>
+      <c r="G170" s="10"/>
+      <c r="H170" s="16"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" s="10"/>
+      <c r="H171" s="16"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C172" t="s">
+        <v>265</v>
+      </c>
+      <c r="G172" s="10"/>
+      <c r="H172" s="16"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
+      <c r="B173" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="10"/>
+      <c r="H173" s="16"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H174" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="D175" t="s">
+        <v>118</v>
+      </c>
+      <c r="E175" t="s">
+        <v>264</v>
+      </c>
+      <c r="G175" s="10"/>
+      <c r="H175" s="16"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" s="10"/>
+      <c r="H176" s="16"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="10"/>
+      <c r="B177" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C177" t="s">
+        <v>279</v>
+      </c>
+      <c r="G177" s="10"/>
+      <c r="H177" s="16"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="10"/>
+      <c r="H178" s="16"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H179" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="D180" t="s">
+        <v>118</v>
+      </c>
+      <c r="E180" t="s">
+        <v>264</v>
+      </c>
+      <c r="G180" s="10"/>
+      <c r="H180" s="16"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="10"/>
+      <c r="H181" s="16"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C182" t="s">
+        <v>280</v>
+      </c>
+      <c r="G182" s="10"/>
+      <c r="H182" s="16"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
+      <c r="B183" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="10"/>
+      <c r="H183" s="16"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H184" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="D185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E185" t="s">
+        <v>264</v>
+      </c>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
+      <c r="B186" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
+      <c r="B188" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="15"/>
-      <c r="B159" t="s">
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
+      <c r="B189" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="15"/>
+      <c r="B191" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3290,11 +3658,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3990,6 +4358,21 @@
         <v>298</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>300</v>
+      </c>
+      <c r="B48" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3998,11 +4381,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,6 +4846,94 @@
         <v>0</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>307</v>
+      </c>
+      <c r="B48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>309</v>
+      </c>
+      <c r="B49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>311</v>
+      </c>
+      <c r="B50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>313</v>
+      </c>
+      <c r="B51" t="s">
+        <v>274</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>315</v>
+      </c>
+      <c r="B52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
     <sortCondition ref="A2"/>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED14DDF5-2D9A-4353-B3C4-052341466676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C022C7-E880-42D0-B868-1BC89296104C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="354">
   <si>
     <t>setting_name</t>
   </si>
@@ -639,12 +639,6 @@
     <t>Outra/o</t>
   </si>
   <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Mãe</t>
-  </si>
-  <si>
     <t>Father</t>
   </si>
   <si>
@@ -780,9 +774,6 @@
     <t>Vizinho</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>No one</t>
   </si>
   <si>
@@ -924,9 +915,6 @@
     <t>Outro lugar</t>
   </si>
   <si>
-    <t>Médico</t>
-  </si>
-  <si>
     <t>Mais do que 342 cm</t>
   </si>
   <si>
@@ -982,6 +970,140 @@
   </si>
   <si>
     <t>data('qvfansi_mns') != null</t>
+  </si>
+  <si>
+    <t>Medico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Dont know</t>
+  </si>
+  <si>
+    <t>WorldBank</t>
+  </si>
+  <si>
+    <t>data('LOCPAR') == 'HO' || data('LOCPAR') == 'CS' || data('LOCPAR') == 'US'</t>
+  </si>
+  <si>
+    <t>Place of hospital / health center</t>
+  </si>
+  <si>
+    <t>Local do hospital / centro de saude</t>
+  </si>
+  <si>
+    <t>select_one_dropdown</t>
+  </si>
+  <si>
+    <t>reg_csv</t>
+  </si>
+  <si>
+    <t>regpar</t>
+  </si>
+  <si>
+    <t>Region: {{data.regpar}}</t>
+  </si>
+  <si>
+    <t>Região: {{data.regpar}}</t>
+  </si>
+  <si>
+    <t>hc_csv</t>
+  </si>
+  <si>
+    <t>PARTONDE</t>
+  </si>
+  <si>
+    <t>Health center / hospital: {{data.PARTONDE}}</t>
+  </si>
+  <si>
+    <t>Centro de saúde / hospital: {{data.PARTONDE}}</t>
+  </si>
+  <si>
+    <t>choice_item.reg === data('regpar')</t>
+  </si>
+  <si>
+    <t>partondens</t>
+  </si>
+  <si>
+    <t>data('partondens') != null</t>
+  </si>
+  <si>
+    <t>PARTONDENS</t>
+  </si>
+  <si>
+    <t>Place of hospitalisation</t>
+  </si>
+  <si>
+    <t>Onde internou</t>
+  </si>
+  <si>
+    <t>PARTPERTO</t>
+  </si>
+  <si>
+    <t>Closest hospital?</t>
+  </si>
+  <si>
+    <t>Este é o hospital mais perto?</t>
+  </si>
+  <si>
+    <t>data('PARTPERTO') =='2'</t>
+  </si>
+  <si>
+    <t>PARTPERPORQ</t>
+  </si>
+  <si>
+    <t>Why not attending closest hospital</t>
+  </si>
+  <si>
+    <t>Porque internou aqui?</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>"HEALTHCENTRES.csv"</t>
+  </si>
+  <si>
+    <t>_.chain(context)
+.uniq(function(x) {
+return x.reg
+})
+.map(function(place){
+return {
+data_value:place.reg,
+display:{title: {text: place.regname} } };
+}).value()</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){place.data_value = place.cscode;
+place.display = {title: {text: place.csname} };
+return place;
+})</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>dontknowfac</t>
+  </si>
+  <si>
+    <t>Other place</t>
+  </si>
+  <si>
+    <t>data('PARTONDE') == '8888'</t>
+  </si>
+  <si>
+    <t>data('partondens')</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1033,6 +1155,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1094,7 +1223,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1122,6 +1251,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1523,11 +1654,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,9 +1672,11 @@
     <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1571,13 +1704,19 @@
       <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="D3" s="12" t="s">
         <v>25</v>
@@ -1596,7 +1735,7 @@
       </c>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>13</v>
@@ -1604,7 +1743,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>94</v>
       </c>
@@ -1613,13 +1752,13 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>30</v>
       </c>
@@ -1630,31 +1769,31 @@
         <v>98</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>160</v>
       </c>
@@ -1666,28 +1805,28 @@
         <v>555</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>96</v>
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>96</v>
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="13" t="s">
         <v>94</v>
@@ -1698,7 +1837,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="13" t="s">
         <v>12</v>
@@ -1715,13 +1854,13 @@
         <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I17" s="11"/>
     </row>
@@ -1738,7 +1877,7 @@
         <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H19" s="16"/>
     </row>
@@ -1753,10 +1892,10 @@
         <v>28</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1764,7 +1903,7 @@
         <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H22" s="16"/>
     </row>
@@ -1821,7 +1960,7 @@
         <v>53</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>41</v>
@@ -1829,13 +1968,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E30" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G30" s="16"/>
     </row>
@@ -1844,7 +1983,7 @@
         <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G31" s="16"/>
     </row>
@@ -1969,13 +2108,13 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E45" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F45" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G45" s="16"/>
     </row>
@@ -1984,7 +2123,7 @@
         <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G46" s="16"/>
     </row>
@@ -2074,13 +2213,13 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E56" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F56" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G56" s="16"/>
     </row>
@@ -2089,7 +2228,7 @@
         <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G57" s="16"/>
     </row>
@@ -2177,13 +2316,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F67" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G67" s="16"/>
     </row>
@@ -2192,7 +2331,7 @@
         <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G68" s="16"/>
     </row>
@@ -2328,7 +2467,7 @@
         <v>143</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2358,7 +2497,7 @@
         <v>145</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2398,18 +2537,18 @@
         <v>148</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E91" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F91" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G91" s="16"/>
     </row>
@@ -2418,7 +2557,7 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G92" s="16"/>
     </row>
@@ -2484,7 +2623,7 @@
         <v>151</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -2645,7 +2784,7 @@
         <v>167</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -2792,13 +2931,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E128" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F128" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G128" s="16"/>
     </row>
@@ -2807,7 +2946,7 @@
         <v>94</v>
       </c>
       <c r="C129" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G129" s="16"/>
     </row>
@@ -2907,13 +3046,13 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E139" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F139" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G139" s="16"/>
     </row>
@@ -2922,7 +3061,7 @@
         <v>94</v>
       </c>
       <c r="C140" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G140" s="16"/>
     </row>
@@ -3020,13 +3159,13 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E150" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F150" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G150" s="16"/>
     </row>
@@ -3035,7 +3174,7 @@
         <v>94</v>
       </c>
       <c r="C151" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G151" s="16"/>
     </row>
@@ -3120,7 +3259,7 @@
         <v>182</v>
       </c>
       <c r="H159" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -3130,14 +3269,14 @@
       </c>
       <c r="H160" s="16"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H161" s="16"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="D162" t="s">
@@ -3153,290 +3292,518 @@
         <v>185</v>
       </c>
       <c r="H162" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H163" s="16"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10" t="s">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B164" t="s">
+        <v>94</v>
+      </c>
+      <c r="C164" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" t="s">
         <v>12</v>
       </c>
-      <c r="H164" s="16"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
-      <c r="B165" s="10"/>
-      <c r="D165" t="s">
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="G166" t="s">
+        <v>319</v>
+      </c>
+      <c r="H166" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+      <c r="D167" t="s">
+        <v>321</v>
+      </c>
+      <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
+        <v>323</v>
+      </c>
+      <c r="G167" t="s">
+        <v>324</v>
+      </c>
+      <c r="H167" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="5"/>
+      <c r="D168" t="s">
+        <v>321</v>
+      </c>
+      <c r="E168" t="s">
+        <v>326</v>
+      </c>
+      <c r="F168" t="s">
+        <v>327</v>
+      </c>
+      <c r="G168" t="s">
+        <v>328</v>
+      </c>
+      <c r="H168" t="s">
+        <v>329</v>
+      </c>
+      <c r="K168" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="D169" t="s">
+        <v>271</v>
+      </c>
+      <c r="E169" t="s">
+        <v>350</v>
+      </c>
+      <c r="F169" t="s">
+        <v>331</v>
+      </c>
+      <c r="K169" s="23"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="5"/>
+      <c r="B170" t="s">
+        <v>94</v>
+      </c>
+      <c r="C170" t="s">
+        <v>332</v>
+      </c>
+      <c r="K170" s="23"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="D171" t="s">
+        <v>160</v>
+      </c>
+      <c r="F171" t="s">
+        <v>327</v>
+      </c>
+      <c r="I171" t="s">
+        <v>353</v>
+      </c>
+      <c r="K171" s="23"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="B172" t="s">
+        <v>96</v>
+      </c>
+      <c r="K172" s="23"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" t="s">
+        <v>94</v>
+      </c>
+      <c r="C174" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="D176" t="s">
+        <v>129</v>
+      </c>
+      <c r="F176" t="s">
+        <v>333</v>
+      </c>
+      <c r="G176" t="s">
+        <v>334</v>
+      </c>
+      <c r="H176" t="s">
+        <v>335</v>
+      </c>
+      <c r="J176" s="23"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="5"/>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="J177" s="23"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="5"/>
+      <c r="B178" t="s">
+        <v>96</v>
+      </c>
+      <c r="J178" s="23"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="24"/>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="24"/>
+      <c r="D180" t="s">
         <v>25</v>
       </c>
-      <c r="E165" t="s">
-        <v>186</v>
-      </c>
-      <c r="F165" t="s">
-        <v>187</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H165" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10" t="s">
+      <c r="E180" t="s">
+        <v>165</v>
+      </c>
+      <c r="F180" t="s">
+        <v>336</v>
+      </c>
+      <c r="G180" t="s">
+        <v>337</v>
+      </c>
+      <c r="H180" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="24"/>
+      <c r="B181" t="s">
+        <v>94</v>
+      </c>
+      <c r="C181" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="24"/>
+      <c r="D182" t="s">
+        <v>129</v>
+      </c>
+      <c r="F182" t="s">
+        <v>340</v>
+      </c>
+      <c r="G182" t="s">
+        <v>341</v>
+      </c>
+      <c r="H182" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="24"/>
+      <c r="B183" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="24"/>
+      <c r="B184" t="s">
         <v>13</v>
       </c>
-      <c r="G166" s="10"/>
-      <c r="H166" s="16"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C167" t="s">
-        <v>263</v>
-      </c>
-      <c r="G167" s="10"/>
-      <c r="H167" s="16"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="10"/>
-      <c r="H168" s="16"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
-      <c r="D169" t="s">
-        <v>28</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H169" s="16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="D170" t="s">
-        <v>118</v>
-      </c>
-      <c r="E170" t="s">
-        <v>264</v>
-      </c>
-      <c r="G170" s="10"/>
-      <c r="H170" s="16"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" s="10"/>
-      <c r="H171" s="16"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="B172" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C172" t="s">
-        <v>265</v>
-      </c>
-      <c r="G172" s="10"/>
-      <c r="H172" s="16"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
-      <c r="B173" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" s="10"/>
-      <c r="H173" s="16"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="B174" s="10"/>
-      <c r="D174" t="s">
-        <v>28</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="H174" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
-      <c r="B175" s="10"/>
-      <c r="D175" t="s">
-        <v>118</v>
-      </c>
-      <c r="E175" t="s">
-        <v>264</v>
-      </c>
-      <c r="G175" s="10"/>
-      <c r="H175" s="16"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
-      <c r="B176" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" s="10"/>
-      <c r="H176" s="16"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C177" t="s">
-        <v>279</v>
-      </c>
-      <c r="G177" s="10"/>
-      <c r="H177" s="16"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
-      <c r="B178" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" s="10"/>
-      <c r="H178" s="16"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
-      <c r="B179" s="10"/>
-      <c r="D179" t="s">
-        <v>28</v>
-      </c>
-      <c r="G179" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H179" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="B180" s="10"/>
-      <c r="D180" t="s">
-        <v>118</v>
-      </c>
-      <c r="E180" t="s">
-        <v>264</v>
-      </c>
-      <c r="G180" s="10"/>
-      <c r="H180" s="16"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
-      <c r="B181" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" s="10"/>
-      <c r="H181" s="16"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
-      <c r="B182" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C182" t="s">
-        <v>280</v>
-      </c>
-      <c r="G182" s="10"/>
-      <c r="H182" s="16"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
-      <c r="B183" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" s="10"/>
-      <c r="H183" s="16"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
-      <c r="B184" s="10"/>
-      <c r="D184" t="s">
-        <v>28</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="H184" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="10"/>
-      <c r="B185" s="10"/>
-      <c r="D185" t="s">
-        <v>118</v>
-      </c>
-      <c r="E185" t="s">
-        <v>264</v>
-      </c>
-      <c r="G185" s="10"/>
-      <c r="H185" s="10"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="24"/>
+      <c r="B185" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" s="16"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="D187" t="s">
+        <v>25</v>
+      </c>
+      <c r="E187" t="s">
+        <v>186</v>
+      </c>
+      <c r="F187" t="s">
+        <v>187</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H187" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
+      <c r="B188" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G186" s="10"/>
-      <c r="H186" s="10"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="10"/>
-      <c r="B187" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G187" s="10"/>
-      <c r="H187" s="10"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" t="s">
-        <v>96</v>
-      </c>
       <c r="G188" s="10"/>
-      <c r="H188" s="10"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H188" s="16"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C189" t="s">
+        <v>260</v>
+      </c>
+      <c r="G189" s="10"/>
+      <c r="H189" s="16"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="10"/>
+      <c r="H190" s="16"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H191" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="D192" t="s">
+        <v>118</v>
+      </c>
+      <c r="E192" t="s">
+        <v>261</v>
+      </c>
+      <c r="G192" s="10"/>
+      <c r="H192" s="16"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" s="10"/>
+      <c r="H193" s="16"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C194" t="s">
+        <v>262</v>
+      </c>
+      <c r="G194" s="10"/>
+      <c r="H194" s="16"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="10"/>
+      <c r="H195" s="16"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H196" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="D197" t="s">
+        <v>118</v>
+      </c>
+      <c r="E197" t="s">
+        <v>261</v>
+      </c>
+      <c r="G197" s="10"/>
+      <c r="H197" s="16"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" s="10"/>
+      <c r="H198" s="16"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="10"/>
+      <c r="B199" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C199" t="s">
+        <v>276</v>
+      </c>
+      <c r="G199" s="10"/>
+      <c r="H199" s="16"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="10"/>
+      <c r="H200" s="16"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H201" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="D202" t="s">
+        <v>118</v>
+      </c>
+      <c r="E202" t="s">
+        <v>261</v>
+      </c>
+      <c r="G202" s="10"/>
+      <c r="H202" s="16"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G203" s="10"/>
+      <c r="H203" s="16"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="10"/>
+      <c r="B204" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C204" t="s">
+        <v>277</v>
+      </c>
+      <c r="G204" s="10"/>
+      <c r="H204" s="16"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="10"/>
+      <c r="B205" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="10"/>
+      <c r="H205" s="16"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H206" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="D207" t="s">
+        <v>118</v>
+      </c>
+      <c r="E207" t="s">
+        <v>261</v>
+      </c>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G208" s="10"/>
+      <c r="H208" s="10"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="10"/>
+      <c r="B209" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G189" s="10"/>
-      <c r="H189" s="10"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+      <c r="G209" s="10"/>
+      <c r="H209" s="10"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="10"/>
+      <c r="B210" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="15"/>
-      <c r="B191" t="s">
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="10"/>
+      <c r="B211" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G211" s="10"/>
+      <c r="H211" s="10"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="15"/>
+      <c r="B213" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3449,11 +3816,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,9 +3834,11 @@
     <col min="7" max="7" width="66.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
@@ -3497,8 +3866,14 @@
       <c r="I1" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -3527,56 +3902,84 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
         <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
         <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" t="s">
+        <v>343</v>
+      </c>
+      <c r="J8" t="s">
+        <v>344</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3658,11 +4061,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:D48"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3712,10 +4115,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,10 +4498,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4110,10 +4513,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4121,8 +4524,8 @@
         <v>156</v>
       </c>
       <c r="B31" s="16" t="str">
-        <f>"6"</f>
-        <v>6</v>
+        <f>"88"</f>
+        <v>88</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>210</v>
@@ -4136,8 +4539,8 @@
         <v>156</v>
       </c>
       <c r="B32" s="16" t="str">
-        <f>"88"</f>
-        <v>88</v>
+        <f>"99"</f>
+        <v>99</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>212</v>
@@ -4148,14 +4551,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="16" t="str">
-        <f>"99"</f>
-        <v>99</v>
+        <v>183</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>215</v>
@@ -4172,7 +4574,7 @@
         <v>217</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4180,13 +4582,13 @@
         <v>183</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4194,13 +4596,13 @@
         <v>183</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4208,168 +4610,212 @@
         <v>183</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" t="s">
+        <v>315</v>
+      </c>
+      <c r="C38" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="D39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B40" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" t="s">
         <v>230</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="D40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="16" t="s">
+      <c r="B41" t="s">
         <v>232</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="C41" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="D41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>186</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="C41" s="16" t="s">
+      <c r="B42" t="s">
         <v>235</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="C42" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="D42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="B43" t="s">
         <v>238</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="C43" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="D43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>186</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C43" s="16" t="s">
+      <c r="B44" t="s">
         <v>241</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="C44" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="D44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="B45" t="s">
         <v>244</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="C45" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="D45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>186</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45" s="16" t="s">
+      <c r="B46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" t="s">
         <v>247</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D46" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+    <row r="47" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="B47" s="16" t="str">
+      <c r="B47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="16" t="str">
         <f>"555"</f>
         <v>555</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>300</v>
-      </c>
-      <c r="B48" t="str">
+      <c r="C48" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>296</v>
+      </c>
+      <c r="B49" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>92</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>350</v>
+      </c>
+      <c r="B50" t="str">
+        <f>"8888"</f>
+        <v>8888</v>
+      </c>
+      <c r="C50" t="s">
+        <v>351</v>
+      </c>
+      <c r="D50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>350</v>
+      </c>
+      <c r="B51" t="str">
+        <f>"9999"</f>
+        <v>9999</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4381,11 +4827,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4562,7 +5008,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>25</v>
@@ -4683,10 +5129,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -4826,7 +5272,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s">
         <v>129</v>
@@ -4837,7 +5283,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B44" t="s">
         <v>129</v>
@@ -4848,10 +5294,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -4859,10 +5305,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -4870,10 +5316,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -4881,10 +5327,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -4892,10 +5338,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B49" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -4903,10 +5349,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -4914,10 +5360,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -4925,12 +5371,78 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B52" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>327</v>
+      </c>
+      <c r="B54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>333</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>323</v>
+      </c>
+      <c r="B58" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" t="s">
+        <v>271</v>
+      </c>
+      <c r="C59" t="b">
         <v>1</v>
       </c>
     </row>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C022C7-E880-42D0-B868-1BC89296104C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD811AE3-1E95-4319-91EC-FB8820485AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10185" yWindow="30" windowWidth="10395" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="362">
   <si>
     <t>setting_name</t>
   </si>
@@ -1104,6 +1104,30 @@
   </si>
   <si>
     <t>data('partondens')</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text.english</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('LMP_M'))&lt;0 || data('LMP_M') == null</t>
+  </si>
+  <si>
+    <t>Cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('LMP_C'))&lt;0 || data('LMP_C') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('OUTDATE'))&lt;0 || data('OUTDATE') == null</t>
+  </si>
+  <si>
+    <t>Date of pregnancy end cannot be in the future</t>
   </si>
 </sst>
 </file>
@@ -1654,11 +1678,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I171" sqref="I171"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,9 +1698,12 @@
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="68" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1710,13 +1737,22 @@
       <c r="K1" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="D3" s="12" t="s">
         <v>25</v>
@@ -1735,7 +1771,7 @@
       </c>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>13</v>
@@ -1743,7 +1779,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>94</v>
       </c>
@@ -1752,13 +1788,13 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>30</v>
       </c>
@@ -1772,7 +1808,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>271</v>
       </c>
@@ -1784,7 +1820,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>94</v>
       </c>
@@ -1793,7 +1829,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>160</v>
       </c>
@@ -1805,28 +1841,28 @@
         <v>555</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>96</v>
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>96</v>
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="13" t="s">
         <v>94</v>
@@ -1837,7 +1873,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="13" t="s">
         <v>12</v>
@@ -1999,25 +2035,25 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>96</v>
       </c>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>28</v>
       </c>
@@ -2026,7 +2062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>130</v>
       </c>
@@ -2039,8 +2075,17 @@
       <c r="H37" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>357</v>
+      </c>
+      <c r="M37" t="s">
+        <v>358</v>
+      </c>
+      <c r="N37" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>94</v>
       </c>
@@ -2049,7 +2094,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>130</v>
       </c>
@@ -2062,26 +2107,35 @@
       <c r="H39" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="s">
+        <v>358</v>
+      </c>
+      <c r="N39" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>96</v>
       </c>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>28</v>
       </c>
@@ -2092,7 +2146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -2106,7 +2160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>271</v>
       </c>
@@ -2118,7 +2172,7 @@
       </c>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>94</v>
       </c>
@@ -2127,7 +2181,7 @@
       </c>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>160</v>
       </c>
@@ -2139,7 +2193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>96</v>
       </c>
@@ -2434,7 +2488,7 @@
       </c>
       <c r="H80" s="16"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" t="s">
         <v>94</v>
@@ -2444,14 +2498,14 @@
       </c>
       <c r="H81" s="16"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H82" s="16"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="D83" t="s">
@@ -2470,21 +2524,21 @@
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="D86" t="s">
@@ -2499,15 +2553,24 @@
       <c r="H86" s="16" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L86" t="s">
+        <v>360</v>
+      </c>
+      <c r="M86" t="s">
+        <v>361</v>
+      </c>
+      <c r="N86" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>94</v>
@@ -2517,14 +2580,14 @@
       </c>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="16"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="D90" t="s">
@@ -2540,7 +2603,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>271</v>
       </c>
@@ -2552,7 +2615,7 @@
       </c>
       <c r="G91" s="16"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>94</v>
       </c>
@@ -2561,7 +2624,7 @@
       </c>
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>160</v>
       </c>
@@ -2573,20 +2636,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>96</v>
       </c>
       <c r="G94" s="16"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="16"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>96</v>
@@ -3968,7 +4031,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>326</v>
       </c>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD811AE3-1E95-4319-91EC-FB8820485AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AA4101-9DEF-4897-A15B-0ED121578165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="30" windowWidth="10395" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1005,22 +1005,10 @@
     <t>regpar</t>
   </si>
   <si>
-    <t>Region: {{data.regpar}}</t>
-  </si>
-  <si>
-    <t>Região: {{data.regpar}}</t>
-  </si>
-  <si>
     <t>hc_csv</t>
   </si>
   <si>
     <t>PARTONDE</t>
-  </si>
-  <si>
-    <t>Health center / hospital: {{data.PARTONDE}}</t>
-  </si>
-  <si>
-    <t>Centro de saúde / hospital: {{data.PARTONDE}}</t>
   </si>
   <si>
     <t>choice_item.reg === data('regpar')</t>
@@ -1115,19 +1103,31 @@
     <t>display.constraint_message.text</t>
   </si>
   <si>
-    <t>adate.diffInYears(data('CONT'), data('LMP_M'))&lt;0 || data('LMP_M') == null</t>
-  </si>
-  <si>
     <t>Cannot be in the future</t>
   </si>
   <si>
-    <t>adate.diffInYears(data('CONT'), data('LMP_C'))&lt;0 || data('LMP_C') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('OUTDATE'))&lt;0 || data('OUTDATE') == null</t>
-  </si>
-  <si>
     <t>Date of pregnancy end cannot be in the future</t>
+  </si>
+  <si>
+    <t>Region: &lt;b&gt;{{data.regpar}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Health center / hospital: &lt;b&gt;{{data.PARTONDE}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Região: &lt;b&gt;{{data.regpar}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Centro de saúde / hospital: &lt;b&gt;{{data.PARTONDE}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('LMP_M'))&lt;1 || data('LMP_M') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('LMP_C'))&lt;1 || data('LMP_C') == null</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('OUTDATE'))&lt;1 || data('OUTDATE') == null</t>
   </si>
 </sst>
 </file>
@@ -1680,9 +1680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:N213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,16 +1735,16 @@
         <v>36</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2076,13 +2076,13 @@
         <v>44</v>
       </c>
       <c r="L37" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M37" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N37" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -2108,13 +2108,13 @@
         <v>43</v>
       </c>
       <c r="L39" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M39" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N39" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -2554,13 +2554,13 @@
         <v>286</v>
       </c>
       <c r="L86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M86" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="N86" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -3406,10 +3406,10 @@
         <v>323</v>
       </c>
       <c r="G167" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="H167" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -3418,19 +3418,19 @@
         <v>321</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
+        <v>325</v>
+      </c>
+      <c r="G168" t="s">
+        <v>356</v>
+      </c>
+      <c r="H168" t="s">
+        <v>358</v>
+      </c>
+      <c r="K168" s="23" t="s">
         <v>326</v>
-      </c>
-      <c r="F168" t="s">
-        <v>327</v>
-      </c>
-      <c r="G168" t="s">
-        <v>328</v>
-      </c>
-      <c r="H168" t="s">
-        <v>329</v>
-      </c>
-      <c r="K168" s="23" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -3439,10 +3439,10 @@
         <v>271</v>
       </c>
       <c r="E169" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K169" s="23"/>
     </row>
@@ -3452,7 +3452,7 @@
         <v>94</v>
       </c>
       <c r="C170" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K170" s="23"/>
     </row>
@@ -3462,10 +3462,10 @@
         <v>160</v>
       </c>
       <c r="F171" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I171" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K171" s="23"/>
     </row>
@@ -3488,7 +3488,7 @@
         <v>94</v>
       </c>
       <c r="C174" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -3503,13 +3503,13 @@
         <v>129</v>
       </c>
       <c r="F176" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G176" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H176" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J176" s="23"/>
     </row>
@@ -3542,13 +3542,13 @@
         <v>165</v>
       </c>
       <c r="F180" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G180" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H180" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>94</v>
       </c>
       <c r="C181" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -3566,13 +3566,13 @@
         <v>129</v>
       </c>
       <c r="F182" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G182" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H182" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -3930,10 +3930,10 @@
         <v>116</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4022,27 +4022,27 @@
         <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -4854,14 +4854,14 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B50" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C50" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D50" t="s">
         <v>293</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B51" t="str">
         <f>"9999"</f>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B54" t="s">
         <v>321</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B55" t="s">
         <v>129</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B56" t="s">
         <v>129</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B59" t="s">
         <v>271</v>
